--- a/biology/Médecine/Jacques_Charpentier/Jacques_Charpentier.xlsx
+++ b/biology/Médecine/Jacques_Charpentier/Jacques_Charpentier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Charpentier, docteur en philosophie et en médecine français, né en 1524 à Clermont en Beauvoisis, mort en 1574.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il professa les mathématiques au Collège de France et la philosophie au Collège de Bourgogne, défendit avec ardeur le Péripatétisme, se signala par son intolérance philosophique et religieuse, et eut de vifs démêlés avec son prédécesseur Ramus, fondateur de la chaire de mathématiques : on l'accuse même de sa mort. Charles IX le nomma son médecin.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il a publié, entre autres écrits : 
 Orationes contra Ramum, 1566
